--- a/vendas.xlsx
+++ b/vendas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor.SN-303358\Documents\ciencia de dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor.SN-303358\Documents\GitHub\ciencia-de-dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B82455-67E9-4E8E-9DED-10C1ECCEFC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97BA4F3-9931-4054-AD71-56ABDF0DD49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{57BA1722-F738-4EDB-846F-B3C663568B3B}"/>
   </bookViews>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FA62D5-9160-4DA3-A0E2-7AD247FC2207}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,7 +534,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -551,7 +551,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -568,7 +568,7 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -585,7 +585,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -602,7 +602,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -619,7 +619,7 @@
         <v>19</v>
       </c>
       <c r="D7">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -636,7 +636,7 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -653,7 +653,7 @@
         <v>24</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -670,7 +670,7 @@
         <v>19</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
